--- a/data/results/it/trading_dashboard.xlsx
+++ b/data/results/it/trading_dashboard.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,26 +471,6 @@
           <t>risk_pct</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>shares_equal</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>shares_constant</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>shares_concave</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>shares_convex</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -528,23 +508,11 @@
       <c r="I2" t="n">
         <v>5.441899281037492</v>
       </c>
-      <c r="J2" t="n">
-        <v>1720</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9146</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1223</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1345</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rbo_20</t>
+          <t>rbo_150__rbo_150</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -560,40 +528,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HOLD SHORT</t>
+          <t>HOLD LONG</t>
         </is>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.554857322147914</v>
+        <v>2.291142872401646</v>
       </c>
       <c r="I3" t="n">
         <v>5.441899281037492</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2062</v>
-      </c>
-      <c r="K3" t="n">
-        <v>45999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2709</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rbo_50</t>
+          <t>rbo_150__rbo_20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -614,35 +570,23 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HOLD LONG</t>
+          <t>ENTER LONG</t>
         </is>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>2.291142872401646</v>
       </c>
       <c r="I4" t="n">
         <v>5.441899281037492</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1997</v>
-      </c>
-      <c r="K4" t="n">
-        <v>35343</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3166</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rema_100150</t>
+          <t>rbo_150__rbo_50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -658,40 +602,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HOLD SHORT</t>
+          <t>HOLD LONG</t>
         </is>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.554857322147914</v>
+        <v>2.291142872401646</v>
       </c>
       <c r="I5" t="n">
         <v>5.441899281037492</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1934</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5612</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1210</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rema_50100</t>
+          <t>rbo_150__rema_100150</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -707,40 +639,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HOLD SHORT</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.554857322147914</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.441899281037492</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2025</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12833</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1672</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1797</v>
-      </c>
+        <v>2.261857032775879</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rema_50100150</t>
+          <t>rbo_150__rema_50100</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -756,40 +674,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HOLD LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.441899281037492</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2154</v>
-      </c>
-      <c r="K7" t="n">
-        <v>39392</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1509</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1434</v>
-      </c>
+        <v>2.261857032775879</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rsma_100150</t>
+          <t>rbo_150__rema_50100150</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -821,24 +725,12 @@
       </c>
       <c r="I8" t="n">
         <v>5.441899281037492</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1898</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12634</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1444</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1542</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rsma_50100</t>
+          <t>rbo_150__rsma_100150</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -854,40 +746,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>HOLD SHORT</t>
+          <t>HOLD LONG</t>
         </is>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.554857322147914</v>
+        <v>2.291142872401646</v>
       </c>
       <c r="I9" t="n">
         <v>5.441899281037492</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1936</v>
-      </c>
-      <c r="K9" t="n">
-        <v>18874</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2498</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2513</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rsma_50100150</t>
+          <t>rbo_150__rsma_50100</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -903,81 +783,3661 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>HOLD SHORT</t>
+          <t>ENTER LONG</t>
         </is>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.554857322147914</v>
+        <v>2.291142872401646</v>
       </c>
       <c r="I10" t="n">
         <v>5.441899281037492</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2093</v>
-      </c>
-      <c r="K10" t="n">
-        <v>44926</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2153</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2017</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>rbo_150__rsma_50100150</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>EXIT LONG</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.261857032775879</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>rbo_150__rtt_5020</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>rbo_20</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>HOLD SHORT</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.554857322147914</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>rbo_20__rbo_150</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>rbo_20__rbo_20</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.534571477345058</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>rbo_20__rbo_50</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>rbo_20__rema_100150</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.534571477345058</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>rbo_20__rema_50100</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.329142706734793</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>rbo_20__rema_50100150</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.534571477345058</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>rbo_20__rsma_100150</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>rbo_20__rsma_50100</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.534571477345058</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>rbo_20__rsma_50100150</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.464857033320836</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>rbo_20__rtt_5020</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>rbo_50</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>rbo_50__rbo_150</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>rbo_50__rbo_20</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ENTER LONG</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>rbo_50__rbo_50</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>rbo_50__rema_100150</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>EXIT LONG</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.261857032775879</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>rbo_50__rema_50100</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>EXIT LONG</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.261857032775879</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>rbo_50__rema_50100150</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>rbo_50__rsma_100150</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>rbo_50__rsma_50100</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>EXIT LONG</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.261857032775879</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>rbo_50__rsma_50100150</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>EXIT LONG</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.261857032775879</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>rbo_50__rtt_5020</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>rema_100150</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>HOLD SHORT</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.554857322147914</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>rema_100150__rbo_150</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.372642721448626</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>rema_100150__rbo_20</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.372642721448626</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>rema_100150__rbo_50</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.372642721448626</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>rema_100150__rema_100150</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.372642721448626</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>rema_100150__rema_50100</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.372642721448626</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>rema_100150__rema_50100150</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.369357075010027</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>rema_100150__rsma_100150</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.372642721448626</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>rema_100150__rsma_50100</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.372642721448626</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>rema_100150__rsma_50100150</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.372642721448626</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>rema_100150__rtt_5020</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.372642721448626</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>rema_50100</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>HOLD SHORT</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.554857322147914</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>rema_50100150</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>rema_50100150__rbo_150</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>rema_50100150__rbo_20</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ENTER LONG</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>rema_50100150__rbo_50</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>rema_50100150__rema_100150</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ENTER LONG</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>rema_50100150__rema_50100</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ENTER LONG</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>rema_50100150__rema_50100150</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>rema_50100150__rsma_100150</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>rema_50100150__rsma_50100</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ENTER LONG</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>rema_50100150__rsma_50100150</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ENTER LONG</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>rema_50100150__rtt_5020</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>rema_50100__rbo_150</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>rema_50100__rbo_20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.301142692565918</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>rema_50100__rbo_50</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>rema_50100__rema_100150</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.329142706734793</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>rema_50100__rema_50100</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.329142706734793</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>rema_50100__rema_50100150</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>rema_50100__rsma_100150</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>rema_50100__rsma_50100</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.329142706734793</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>rema_50100__rsma_50100150</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.329142706734793</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>rema_50100__rtt_5020</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>rsma_100150</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>rsma_100150__rbo_150</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>rsma_100150__rbo_20</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ENTER LONG</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>rsma_100150__rbo_50</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>rsma_100150__rema_100150</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ENTER LONG</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>rsma_100150__rema_50100</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>EXIT LONG</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.261857032775879</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>rsma_100150__rema_50100150</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>rsma_100150__rsma_100150</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>rsma_100150__rsma_50100</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ENTER LONG</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>rsma_100150__rsma_50100150</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ENTER LONG</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>rsma_100150__rtt_5020</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>rsma_50100</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>HOLD SHORT</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.554857322147914</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>rsma_50100150</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>HOLD SHORT</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.554857322147914</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>rsma_50100150__rbo_150</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>rsma_50100150__rbo_20</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.534571477345058</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>rsma_50100150__rbo_50</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.383142914090838</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>rsma_50100150__rema_100150</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.383142914090838</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>rsma_50100150__rema_50100</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.383142914090838</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>rsma_50100150__rema_50100150</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.506285633359636</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>rsma_50100150__rsma_100150</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>rsma_50100150__rsma_50100</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.383142914090838</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>rsma_50100150__rsma_50100150</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2.383142914090838</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>rsma_50100150__rtt_5020</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>rsma_50100__rbo_150</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I91" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>rsma_50100__rbo_20</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.534571477345058</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>rsma_50100__rbo_50</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.33628579548427</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>rsma_50100__rema_100150</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.33628579548427</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>rsma_50100__rema_50100</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.33628579548427</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>rsma_50100__rema_50100150</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2.506285633359636</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>rsma_50100__rsma_100150</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2.33628579548427</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>rsma_50100__rsma_50100</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2.364999907357352</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>rsma_50100__rsma_50100150</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2.33628579548427</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>rsma_50100__rtt_5020</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
           <t>rtt_5020</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>A2A.MI</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.42300009727478</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>FLAT</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
         <is>
           <t>STAY FLAT</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
         <v>2.534571477345058</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>2037</v>
-      </c>
-      <c r="K11" t="n">
-        <v>93091</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6496</v>
-      </c>
-      <c r="M11" t="n">
-        <v>7008</v>
+      <c r="I101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>rtt_5020__rbo_150</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>rtt_5020__rbo_20</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2.534571477345058</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>rtt_5020__rbo_50</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>rtt_5020__rema_100150</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2.464857033320836</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>rtt_5020__rema_50100</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2.329142706734793</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>rtt_5020__rema_50100150</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2.534571477345058</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>rtt_5020__rsma_100150</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I108" t="n">
+        <v>5.441899281037492</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>rtt_5020__rsma_50100</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2.464857033320836</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>rtt_5020__rsma_50100150</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>FLAT</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>STAY FLAT</t>
+        </is>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2.464857033320836</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>rtt_5020__rtt_5020</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>A2A.MI</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.42300009727478</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>HOLD LONG</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2.291142872401646</v>
+      </c>
+      <c r="I111" t="n">
+        <v>5.441899281037492</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/it/trading_dashboard.xlsx
+++ b/data/results/it/trading_dashboard.xlsx
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I2" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="3">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I3" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="4">
@@ -565,23 +565,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ENTER LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.441899281037492</v>
-      </c>
+        <v>2.291285753250122</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -614,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I5" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="6">
@@ -639,21 +637,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FLAT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EXIT LONG</t>
+          <t>ENTER LONG</t>
         </is>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.261857032775879</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>2.290285757609776</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.47727339401562</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -674,21 +674,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FLAT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EXIT LONG</t>
+          <t>ENTER LONG</t>
         </is>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.261857032775879</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>2.290285757609776</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.47727339401562</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -721,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I8" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="9">
@@ -758,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I9" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="10">
@@ -783,23 +785,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ENTER LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.441899281037492</v>
-      </c>
+        <v>2.291285753250122</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -820,21 +820,23 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FLAT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EXIT LONG</t>
+          <t>ENTER LONG</t>
         </is>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.261857032775879</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>2.290285757609776</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.47727339401562</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -867,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I12" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="13">
@@ -904,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.554857322147914</v>
+        <v>2.555714436939784</v>
       </c>
       <c r="I13" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="14">
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I14" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="15">
@@ -1013,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I16" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="17">
@@ -1155,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I20" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="21">
@@ -1262,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I23" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="24">
@@ -1299,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I24" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="25">
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I25" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="26">
@@ -1361,23 +1363,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ENTER LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.441899281037492</v>
-      </c>
+        <v>2.291285753250122</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1410,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I27" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="28">
@@ -1435,21 +1435,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FLAT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EXIT LONG</t>
+          <t>ENTER LONG</t>
         </is>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.261857032775879</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>2.290285757609776</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.47727339401562</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1470,21 +1472,23 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FLAT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EXIT LONG</t>
+          <t>ENTER LONG</t>
         </is>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.261857032775879</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>2.290285757609776</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.47727339401562</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1517,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I30" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="31">
@@ -1554,10 +1558,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I31" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="32">
@@ -1579,21 +1583,23 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FLAT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EXIT LONG</t>
+          <t>ENTER LONG</t>
         </is>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.261857032775879</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>2.290285757609776</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.47727339401562</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1614,21 +1620,23 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FLAT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>EXIT LONG</t>
+          <t>ENTER LONG</t>
         </is>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>2.261857032775879</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>2.290285757609776</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.47727339401562</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1661,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I34" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="35">
@@ -1698,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.554857322147914</v>
+        <v>2.555714436939784</v>
       </c>
       <c r="I35" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="36">
@@ -2085,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.554857322147914</v>
+        <v>2.555714436939784</v>
       </c>
       <c r="I46" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="47">
@@ -2122,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I47" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="48">
@@ -2159,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I48" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="49">
@@ -2184,23 +2192,21 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ENTER LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5.441899281037492</v>
-      </c>
+        <v>2.291285753250122</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2233,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I50" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="51">
@@ -2258,23 +2264,21 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ENTER LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5.441899281037492</v>
-      </c>
+        <v>2.291285753250122</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2295,23 +2299,21 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ENTER LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5.441899281037492</v>
-      </c>
+        <v>2.291285753250122</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2344,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I53" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="54">
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I54" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="55">
@@ -2406,23 +2408,21 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ENTER LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5.441899281037492</v>
-      </c>
+        <v>2.291285753250122</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2443,23 +2443,21 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ENTER LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5.441899281037492</v>
-      </c>
+        <v>2.291285753250122</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2492,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I57" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="58">
@@ -2529,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I58" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="59">
@@ -2601,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I60" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="61">
@@ -2708,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I63" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="64">
@@ -2745,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I64" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="65">
@@ -2852,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I67" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="68">
@@ -2889,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I68" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="69">
@@ -2926,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I69" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="70">
@@ -2951,23 +2949,21 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ENTER LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5.441899281037492</v>
-      </c>
+        <v>2.291285753250122</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3000,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I71" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="72">
@@ -3025,23 +3021,21 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ENTER LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5.441899281037492</v>
-      </c>
+        <v>2.291285753250122</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3062,21 +3056,23 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FLAT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>EXIT LONG</t>
+          <t>ENTER LONG</t>
         </is>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>2.261857032775879</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>2.290285757609776</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5.47727339401562</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3109,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I74" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="75">
@@ -3146,10 +3142,10 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I75" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="76">
@@ -3171,23 +3167,21 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ENTER LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5.441899281037492</v>
-      </c>
+        <v>2.291285753250122</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3208,23 +3202,21 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>FLAT</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ENTER LONG</t>
+          <t>EXIT LONG</t>
         </is>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>2.291142872401646</v>
-      </c>
-      <c r="I77" t="n">
-        <v>5.441899281037492</v>
-      </c>
+        <v>2.291285753250122</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3257,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I78" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="79">
@@ -3294,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>2.554857322147914</v>
+        <v>2.555714436939784</v>
       </c>
       <c r="I79" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="80">
@@ -3331,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>2.554857322147914</v>
+        <v>2.555714436939784</v>
       </c>
       <c r="I80" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="81">
@@ -3368,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I81" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="82">
@@ -3580,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I87" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="88">
@@ -3687,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I90" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="91">
@@ -3724,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I91" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="92">
@@ -4041,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I100" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="101">
@@ -4113,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I102" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="103">
@@ -4185,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I104" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="105">
@@ -4327,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I108" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
     <row r="109">
@@ -4434,10 +4426,10 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>2.291142872401646</v>
+        <v>2.290285757609776</v>
       </c>
       <c r="I111" t="n">
-        <v>5.441899281037492</v>
+        <v>5.47727339401562</v>
       </c>
     </row>
   </sheetData>
